--- a/2020/4/TI/lab2/1.3.xlsx
+++ b/2020/4/TI/lab2/1.3.xlsx
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +90,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,489 +416,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0.06</v>
-      </c>
-      <c r="C2">
-        <v>0.15</v>
-      </c>
-      <c r="D2">
-        <v>0.12</v>
-      </c>
-      <c r="E2">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1E-42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="1">
         <f>SUM(B2:D2)</f>
         <v>0.32999999999999996</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <f>B2/$E2</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H2">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="H2" s="1">
         <f>C2/$E2</f>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="I2">
+        <v>3.0303030303030308E-42</v>
+      </c>
+      <c r="I2" s="1">
         <f>D2/$E2</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="J2">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J2" s="1">
         <f>SUM(G2:I2)</f>
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <f>B2/B$5</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M2">
+        <v>0.69767441860465129</v>
+      </c>
+      <c r="M2" s="1">
         <f>C2/C$5</f>
-        <v>0.57692085799670001</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="M2:N4" si="0">D2/D$5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0.16</v>
-      </c>
-      <c r="C3">
-        <v>0.11</v>
-      </c>
-      <c r="D3">
-        <v>0.06</v>
-      </c>
-      <c r="E3">
+        <v>1.2499999999999999E-41</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N4" si="0">D2/D$5</f>
+        <v>6.1224489795918359E-2</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="1">
         <f>SUM(B3:D3)</f>
+        <v>0.34</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f>B3/$E3</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="1">C3/$E3</f>
+        <v>8.8235294117647051E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I4" si="2">D3/$E3</f>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J4" si="3">SUM(G3:I3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L4" si="4">B3/B$5</f>
+        <v>9.3023255813953501E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3" si="5">C3/C$5</f>
+        <v>0.375</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55102040816326525</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4" si="6">SUM(B4:D4)</f>
         <v>0.33</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="1">B3/$E3</f>
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="2">C3/$E3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I4" si="3">D3/$E3</f>
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="4">SUM(G3:I3)</f>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G3:G4" si="7">B4/$E4</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57575757575757569</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L4" si="5">B3/B$5</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M4" si="6">C3/C$5</f>
-        <v>0.42307529586424669</v>
-      </c>
-      <c r="N3">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="M4" s="1">
+        <f>C4/C$5</f>
+        <v>0.625</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.32</v>
-      </c>
-      <c r="C4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4" si="7">SUM(B4:D4)</f>
-        <v>0.340001</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0.94117370243028697</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>2.9411678200946467E-6</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>5.8823356401892936E-2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="M4">
-        <f>C4/C$5</f>
-        <v>3.8461390533113333E-6</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>0.38775510204081631</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>0.54</v>
-      </c>
-      <c r="C5">
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="C5" s="1">
         <f>SUM(C2:C4)</f>
-        <v>0.26000099999999998</v>
-      </c>
-      <c r="D5">
+        <v>0.08</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" ref="D5" si="8">SUM(D2:D4)</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="K5" t="s">
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f>SUM(L2:L4)</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" ref="M5:N5" si="9">SUM(M2:M4)</f>
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <f>LOG($E2,2)</f>
         <v>-1.5994620704162716</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>LOG($E3,2)</f>
+        <v>-1.556393348524385</v>
+      </c>
+      <c r="D6" s="1">
+        <f>LOG($E4,2)</f>
         <v>-1.5994620704162712</v>
       </c>
-      <c r="D6">
-        <f>LOG($E4,2)</f>
-        <v>-1.5563891053099168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f>SUM(B2:D4)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <f>B6*E2</f>
         <v>-0.52782248323736958</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>C6*E3</f>
+        <v>-0.52917373849829097</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6*E4</f>
         <v>-0.52782248323736947</v>
       </c>
-      <c r="D7">
-        <f>D6*E4</f>
-        <v>-0.52917385219447699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>-SUM(B7:D7)</f>
-        <v>1.5848188186692158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9">
+        <v>1.58481870497303</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
         <f>LOG(B5,2)</f>
-        <v>-0.88896868761125614</v>
-      </c>
-      <c r="C9">
+        <v>-1.2175914350726269</v>
+      </c>
+      <c r="C9" s="1">
         <f>LOG(C5,2)</f>
-        <v>-1.9434109228172232</v>
-      </c>
-      <c r="D9">
+        <v>-3.6438561897747253</v>
+      </c>
+      <c r="D9" s="1">
         <f>LOG(D5,2)</f>
-        <v>-2.3219280948873626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10">
+        <v>-1.0291463456595165</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <f>B5*B9</f>
-        <v>-0.48004309131007833</v>
-      </c>
-      <c r="C10">
+        <v>-0.52356431708122952</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" ref="C10:D10" si="10">C5*C9</f>
-        <v>-0.50528878334340077</v>
-      </c>
-      <c r="D10">
+        <v>-0.29150849518197802</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="10"/>
-        <v>-0.46438561897747249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>-0.50428170937316308</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>-SUM(B10:D10)</f>
-        <v>1.4497174936309516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+        <v>1.3193545216363707</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <f>LOG(L2,2)</f>
-        <v>-3.1699250014423126</v>
-      </c>
-      <c r="C14">
+        <v>-0.5193741590935792</v>
+      </c>
+      <c r="C14" s="1">
         <f>LOG(M2,2)</f>
-        <v>-0.79355467134898328</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="C14:D16" si="11">LOG(N2,2)</f>
-        <v>-0.73696559416620622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+        <v>-135.8771237954945</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D16" si="11">LOG(N2,2)</f>
+        <v>-4.0297473433940523</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
         <f>LOG(L3,2)</f>
-        <v>-1.7548875021634687</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:C16" si="12">LOG(M3,2)</f>
-        <v>-1.2410136483202046</v>
-      </c>
-      <c r="D15">
+        <v>-3.4262647547020979</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15" si="12">LOG(M3,2)</f>
+        <v>-1.4150374992788437</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="11"/>
-        <v>-1.7369655941662063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f t="shared" ref="B15:B16" si="13">LOG(L4,2)</f>
-        <v>-0.75488750216346867</v>
-      </c>
-      <c r="C16">
+        <v>-0.8598223419517399</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16" si="13">LOG(L4,2)</f>
+        <v>-2.2563397532597858</v>
+      </c>
+      <c r="C16" s="1">
         <f>LOG(M4,2)</f>
-        <v>-17.988157646506952</v>
-      </c>
-      <c r="D16">
+        <v>-0.67807190511263771</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="11"/>
-        <v>-3.3219280948873622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+        <v>-1.3667823306716229</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <f>B2*B14</f>
-        <v>-0.19019550008653874</v>
-      </c>
-      <c r="C18">
+        <v>-0.15581224772807376</v>
+      </c>
+      <c r="C18" s="1">
         <f>C2*C14</f>
-        <v>-0.11903320070234749</v>
-      </c>
-      <c r="D18">
+        <v>-1.358771237954945E-40</v>
+      </c>
+      <c r="D18" s="1">
         <f>D2*D14</f>
-        <v>-8.8435871299944749E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" ref="B19:D20" si="14">B3*B15</f>
-        <v>-0.28078200034615497</v>
-      </c>
-      <c r="C19">
+        <v>-0.12089242030182157</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:D19" si="14">B3*B15</f>
+        <v>-0.13705059018808391</v>
+      </c>
+      <c r="C19" s="1">
         <f t="shared" si="14"/>
-        <v>-0.13651150131522249</v>
-      </c>
-      <c r="D19">
+        <v>-4.2451124978365312E-2</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10421793564997238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+        <v>-0.23215203232696979</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
         <f>B4*B16</f>
-        <v>-0.24156400069230999</v>
-      </c>
-      <c r="C20">
+        <v>-0.2030705777933807</v>
+      </c>
+      <c r="C20" s="1">
         <f t="shared" ref="C20:D20" si="15">C4*C16</f>
-        <v>-1.7988157646506951E-5</v>
-      </c>
-      <c r="D20">
+        <v>-3.3903595255631885E-2</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="15"/>
-        <v>-6.6438561897747245E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>-0.25968864282760834</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f>-SUM(B18:D20)</f>
-        <v>1.2271965601478847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+        <v>1.1850212313999353</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <f>LOG(G2,2)</f>
-        <v>-2.4594316186372973</v>
-      </c>
-      <c r="C24">
+        <v>-0.13750352374993477</v>
+      </c>
+      <c r="C24" s="1">
         <f t="shared" ref="C24:D26" si="16">LOG(H2,2)</f>
-        <v>-1.1375035237499347</v>
-      </c>
-      <c r="D24">
+        <v>-137.92151791485296</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="16"/>
-        <v>-1.4594316186372973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+        <v>-3.4594316186372978</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
         <f t="shared" ref="B25:B26" si="17">LOG(G3,2)</f>
-        <v>-1.0443941193584534</v>
-      </c>
-      <c r="C25">
+        <v>-3.0874628412503395</v>
+      </c>
+      <c r="C25" s="1">
         <f t="shared" si="16"/>
-        <v>-1.5849625007211563</v>
-      </c>
-      <c r="D25">
+        <v>-3.5025003405291839</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="16"/>
-        <v>-2.4594316186372973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
+        <v>-0.33257533908687098</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <f t="shared" si="17"/>
-        <v>-8.7467084464807887E-2</v>
-      </c>
-      <c r="C26">
+        <v>-1.8744691179161412</v>
+      </c>
+      <c r="C26" s="1">
         <f t="shared" si="16"/>
-        <v>-18.375179464014259</v>
-      </c>
-      <c r="D26">
+        <v>-2.7224660244710912</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="16"/>
-        <v>-4.0874670844648078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+        <v>-0.79646660591486806</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
         <f>B24*B2</f>
-        <v>-0.14756589711823784</v>
-      </c>
-      <c r="C28">
+        <v>-4.1251057124980429E-2</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" ref="C28:D28" si="18">C24*C2</f>
-        <v>-0.17062552856249019</v>
-      </c>
-      <c r="D28">
+        <v>-1.3792151791485296E-40</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="18"/>
-        <v>-0.17513179423647568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29">
+        <v>-0.10378294855911893</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
         <f t="shared" ref="B29:D30" si="19">B25*B3</f>
-        <v>-0.16710305909735254</v>
-      </c>
-      <c r="C29">
+        <v>-0.12349851365001359</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="19"/>
-        <v>-0.17434587507932719</v>
-      </c>
-      <c r="D29">
+        <v>-0.10507501021587551</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="19"/>
-        <v>-0.14756589711823784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30">
+        <v>-8.9795341553455171E-2</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
         <f t="shared" si="19"/>
-        <v>-2.7989467028738526E-2</v>
-      </c>
-      <c r="C30">
+        <v>-0.16870222061245271</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="19"/>
-        <v>-1.837517946401426E-5</v>
-      </c>
-      <c r="D30">
+        <v>-0.13612330122355457</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="19"/>
-        <v>-8.1749341689296151E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>-0.15132865512382493</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <f>-SUM(B28:D30)</f>
-        <v>1.0920952351096198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>0.91955704806327576</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <f>B8+B31</f>
-        <v>2.6769140537788356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>2.5043757530363058</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <f>B8+B11-B32</f>
-        <v>0.35762225852133156</v>
-      </c>
+        <v>0.39979747357309492</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
